--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_0\src\inputs\obiegi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E845D9-ABC9-4AF8-BA85-5BD5C25C2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703A70C-6044-495E-B7F5-C55A06848693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -45,13 +45,148 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>815 07</t>
-  </si>
-  <si>
     <t>EN57FPS</t>
   </si>
   <si>
-    <t>Zatrudniać maszynistów z autoryzacją na EN57FPS</t>
+    <t>815 02</t>
+  </si>
+  <si>
+    <t>ED72Ac</t>
+  </si>
+  <si>
+    <t>815 03</t>
+  </si>
+  <si>
+    <t>2x EN57FPS</t>
+  </si>
+  <si>
+    <t>815 04FPS</t>
+  </si>
+  <si>
+    <t>EN57ALwKM</t>
+  </si>
+  <si>
+    <t>815 05</t>
+  </si>
+  <si>
+    <t>815 07FPS</t>
+  </si>
+  <si>
+    <t>815 09</t>
+  </si>
+  <si>
+    <t>815 15</t>
+  </si>
+  <si>
+    <t>815 10</t>
+  </si>
+  <si>
+    <t>EN57</t>
+  </si>
+  <si>
+    <t>815 11</t>
+  </si>
+  <si>
+    <t>815 12</t>
+  </si>
+  <si>
+    <t>815 13</t>
+  </si>
+  <si>
+    <t>815 14</t>
+  </si>
+  <si>
+    <t>815 16FPS</t>
+  </si>
+  <si>
+    <t>815 17FPS</t>
+  </si>
+  <si>
+    <t>EN63A</t>
+  </si>
+  <si>
+    <t>810 01</t>
+  </si>
+  <si>
+    <t>810 02</t>
+  </si>
+  <si>
+    <t>810 03</t>
+  </si>
+  <si>
+    <t>810 04</t>
+  </si>
+  <si>
+    <t>810 05</t>
+  </si>
+  <si>
+    <t>810 01(C)</t>
+  </si>
+  <si>
+    <t>810 02(C)</t>
+  </si>
+  <si>
+    <t>810 03(C)</t>
+  </si>
+  <si>
+    <t>810 04(C)</t>
+  </si>
+  <si>
+    <t>810 05(C)</t>
+  </si>
+  <si>
+    <t>810 06</t>
+  </si>
+  <si>
+    <t>810 07</t>
+  </si>
+  <si>
+    <t>EN57AL</t>
+  </si>
+  <si>
+    <t>810 08</t>
+  </si>
+  <si>
+    <t>810 19</t>
+  </si>
+  <si>
+    <t>810 20</t>
+  </si>
+  <si>
+    <t>810 21</t>
+  </si>
+  <si>
+    <t>810 22</t>
+  </si>
+  <si>
+    <t>ED78</t>
+  </si>
+  <si>
+    <t>EP07P</t>
+  </si>
+  <si>
+    <t>SA133</t>
+  </si>
+  <si>
+    <t>SA137</t>
+  </si>
+  <si>
+    <t>SA134</t>
+  </si>
+  <si>
+    <t>810 23</t>
+  </si>
+  <si>
+    <t>810 28</t>
+  </si>
+  <si>
+    <t>SA103</t>
+  </si>
+  <si>
+    <t>810 18</t>
+  </si>
+  <si>
+    <t>810 13</t>
   </si>
 </sst>
 </file>
@@ -372,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +551,748 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>63</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>66</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>68</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>69</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>72</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>76</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>77</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>80</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>81</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>82</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>83</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>83</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>84</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A830AB84-274C-4151-8E76-5C2BEBC030A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0B46D-3096-4284-97A3-80D29E050C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>EN57FPS</t>
-  </si>
-  <si>
     <t>815 02</t>
   </si>
   <si>
@@ -57,49 +54,13 @@
     <t>815 03</t>
   </si>
   <si>
-    <t>2x EN57FPS</t>
-  </si>
-  <si>
     <t>EN57ALwKM</t>
   </si>
   <si>
-    <t>815 05</t>
-  </si>
-  <si>
-    <t>815 09</t>
-  </si>
-  <si>
-    <t>815 15</t>
-  </si>
-  <si>
-    <t>815 10</t>
-  </si>
-  <si>
     <t>EN57</t>
   </si>
   <si>
-    <t>815 11</t>
-  </si>
-  <si>
-    <t>815 12</t>
-  </si>
-  <si>
-    <t>815 13</t>
-  </si>
-  <si>
-    <t>815 14</t>
-  </si>
-  <si>
     <t>815 04</t>
-  </si>
-  <si>
-    <t>815 06</t>
-  </si>
-  <si>
-    <t>815 07</t>
-  </si>
-  <si>
-    <t>815 08</t>
   </si>
 </sst>
 </file>
@@ -420,9 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,10 +425,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,208 +447,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0B46D-3096-4284-97A3-80D29E050C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824ECB7-D0FA-4376-A494-42524E2845EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Uwagi</t>
   </si>
   <si>
+    <t>EN57FPS</t>
+  </si>
+  <si>
     <t>815 02</t>
   </si>
   <si>
@@ -54,13 +57,49 @@
     <t>815 03</t>
   </si>
   <si>
+    <t>2x EN57FPS</t>
+  </si>
+  <si>
     <t>EN57ALwKM</t>
   </si>
   <si>
+    <t>815 05</t>
+  </si>
+  <si>
+    <t>815 09</t>
+  </si>
+  <si>
+    <t>815 15</t>
+  </si>
+  <si>
+    <t>815 10</t>
+  </si>
+  <si>
     <t>EN57</t>
   </si>
   <si>
+    <t>815 11</t>
+  </si>
+  <si>
+    <t>815 12</t>
+  </si>
+  <si>
+    <t>815 13</t>
+  </si>
+  <si>
+    <t>815 14</t>
+  </si>
+  <si>
     <t>815 04</t>
+  </si>
+  <si>
+    <t>815 06</t>
+  </si>
+  <si>
+    <t>815 07</t>
+  </si>
+  <si>
+    <t>815 08</t>
   </si>
 </sst>
 </file>
@@ -381,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,10 +486,131 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\obiegi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Desktop\ZRJ5\v_1_0_3\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824ECB7-D0FA-4376-A494-42524E2845EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53D514-8050-48BA-B3EA-CBBECE60EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,86 +33,114 @@
     <t>opis_obiegu</t>
   </si>
   <si>
+    <t>Zestawienie</t>
+  </si>
+  <si>
+    <t>Uwagi</t>
+  </si>
+  <si>
+    <t>815 08</t>
+  </si>
+  <si>
     <t>815 01</t>
   </si>
   <si>
     <t>EN71</t>
   </si>
   <si>
-    <t>Zestawienie</t>
-  </si>
-  <si>
-    <t>Uwagi</t>
+    <t>815 02</t>
+  </si>
+  <si>
+    <t>ED72Ac</t>
+  </si>
+  <si>
+    <t>815 03</t>
+  </si>
+  <si>
+    <t>815 04</t>
+  </si>
+  <si>
+    <t>2x EN57FPS</t>
+  </si>
+  <si>
+    <t>815 05</t>
   </si>
   <si>
     <t>EN57FPS</t>
   </si>
   <si>
-    <t>815 02</t>
-  </si>
-  <si>
-    <t>ED72Ac</t>
-  </si>
-  <si>
-    <t>815 03</t>
-  </si>
-  <si>
-    <t>2x EN57FPS</t>
+    <t>815 06</t>
+  </si>
+  <si>
+    <t>815 07</t>
   </si>
   <si>
     <t>EN57ALwKM</t>
   </si>
   <si>
-    <t>815 05</t>
-  </si>
-  <si>
     <t>815 09</t>
   </si>
   <si>
+    <t>815 10</t>
+  </si>
+  <si>
+    <t>815 11</t>
+  </si>
+  <si>
+    <t>EN57</t>
+  </si>
+  <si>
+    <t>815 12</t>
+  </si>
+  <si>
+    <t>815 13</t>
+  </si>
+  <si>
+    <t>815 14</t>
+  </si>
+  <si>
     <t>815 15</t>
-  </si>
-  <si>
-    <t>815 10</t>
-  </si>
-  <si>
-    <t>EN57</t>
-  </si>
-  <si>
-    <t>815 11</t>
-  </si>
-  <si>
-    <t>815 12</t>
-  </si>
-  <si>
-    <t>815 13</t>
-  </si>
-  <si>
-    <t>815 14</t>
-  </si>
-  <si>
-    <t>815 04</t>
-  </si>
-  <si>
-    <t>815 06</t>
-  </si>
-  <si>
-    <t>815 07</t>
-  </si>
-  <si>
-    <t>815 08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +160,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,8 +180,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="12">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="4" xr:uid="{B2D43D89-F857-46FA-A221-551757050D21}"/>
+    <cellStyle name="Normalny 11 2" xfId="8" xr:uid="{B7BD8B81-69D7-4A86-A0A8-922A20D240AB}"/>
+    <cellStyle name="Normalny 2 5" xfId="5" xr:uid="{1DBB8D7C-BE92-4EB4-A995-BF8B764DC254}"/>
+    <cellStyle name="Normalny 7 10 4 4 2 3" xfId="10" xr:uid="{E4A0C59E-6B32-4F7A-8B57-78286688157A}"/>
+    <cellStyle name="Normalny 7 10 4 4 3 2" xfId="2" xr:uid="{202DE94D-B3D2-4933-A0A1-5F0D5CDE54DF}"/>
+    <cellStyle name="Normalny 7 10 4 5" xfId="9" xr:uid="{E1E84863-7F94-486F-9C57-FE021AC62FEE}"/>
+    <cellStyle name="Normalny 8 3" xfId="1" xr:uid="{EDFFF2E6-5A0E-4EA3-B2BD-E7F7677A8175}"/>
+    <cellStyle name="Normalny 8 3 2" xfId="11" xr:uid="{B6445C35-E6BF-4C1A-AB08-614F12229727}"/>
+    <cellStyle name="Normalny 8 4" xfId="7" xr:uid="{54A313B8-22E5-4972-992E-55DD5E2C8CB6}"/>
+    <cellStyle name="Normalny 9" xfId="3" xr:uid="{92484E55-C7B5-4010-A66E-2686826D0B37}"/>
+    <cellStyle name="Normalny 9 3" xfId="6" xr:uid="{C6D38C31-7C9A-47C6-A8A4-D42D56944EB3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +473,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Desktop\ZRJ5\v_1_0_3\src\inputs\obiegi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_5\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53D514-8050-48BA-B3EA-CBBECE60EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0770E-E593-4FF5-AD32-5920AC4330B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -94,12 +94,6 @@
   </si>
   <si>
     <t>815 13</t>
-  </si>
-  <si>
-    <t>815 14</t>
-  </si>
-  <si>
-    <t>815 15</t>
   </si>
 </sst>
 </file>
@@ -470,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,28 +635,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/inputs/obiegi/obiegi.xlsx
+++ b/src/inputs/obiegi/obiegi.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_5\src\inputs\obiegi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacper.szmajda\Desktop\pot\zrj_1\SA\src\inputs\obiegi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0770E-E593-4FF5-AD32-5920AC4330B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE0F45E-6DA3-47A8-9125-94F30BE5631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -39,61 +50,34 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>815 08</t>
-  </si>
-  <si>
-    <t>815 01</t>
-  </si>
-  <si>
-    <t>EN71</t>
-  </si>
-  <si>
-    <t>815 02</t>
-  </si>
-  <si>
-    <t>ED72Ac</t>
-  </si>
-  <si>
-    <t>815 03</t>
-  </si>
-  <si>
-    <t>815 04</t>
-  </si>
-  <si>
-    <t>2x EN57FPS</t>
-  </si>
-  <si>
-    <t>815 05</t>
-  </si>
-  <si>
-    <t>EN57FPS</t>
-  </si>
-  <si>
-    <t>815 06</t>
-  </si>
-  <si>
-    <t>815 07</t>
-  </si>
-  <si>
-    <t>EN57ALwKM</t>
-  </si>
-  <si>
-    <t>815 09</t>
-  </si>
-  <si>
-    <t>815 10</t>
-  </si>
-  <si>
-    <t>815 11</t>
-  </si>
-  <si>
-    <t>EN57</t>
-  </si>
-  <si>
-    <t>815 12</t>
-  </si>
-  <si>
-    <t>815 13</t>
+    <t>SA139/3</t>
+  </si>
+  <si>
+    <t>SA135/7</t>
+  </si>
+  <si>
+    <t>SA134/5</t>
+  </si>
+  <si>
+    <t>SA139</t>
+  </si>
+  <si>
+    <t>SA134</t>
+  </si>
+  <si>
+    <t>SA135</t>
+  </si>
+  <si>
+    <t>SA134/4</t>
+  </si>
+  <si>
+    <t>SA134/3</t>
+  </si>
+  <si>
+    <t>SA135/1</t>
+  </si>
+  <si>
+    <t>SA135/5</t>
   </si>
 </sst>
 </file>
@@ -464,21 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,51 +476,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -544,95 +528,29 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
         <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
